--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_20-47.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_20-47.xlsx
@@ -3199,17 +3199,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -4202,7 +4202,7 @@
     </row>
     <row r="124" ht="25.5" customHeight="1">
       <c r="K124" s="11">
-        <v>6868.5</v>
+        <v>6891.5</v>
       </c>
       <c r="L124" s="11"/>
       <c r="M124" s="11"/>
